--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl5-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl5-Ccr3.xlsx
@@ -531,34 +531,34 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.614534333333333</v>
+        <v>1.893344666666666</v>
       </c>
       <c r="H2">
-        <v>4.843603</v>
+        <v>5.680033999999999</v>
       </c>
       <c r="I2">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="J2">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.130649</v>
+        <v>0.3389413333333333</v>
       </c>
       <c r="N2">
-        <v>0.391947</v>
+        <v>1.016824</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.2109372961156667</v>
+        <v>0.6417327657795554</v>
       </c>
       <c r="R2">
-        <v>1.898435665041</v>
+        <v>5.775594892015999</v>
       </c>
       <c r="S2">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
       <c r="T2">
-        <v>0.10197989862822</v>
+        <v>0.05525983881677096</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,28 +599,28 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.159773333333333</v>
+        <v>4.159773333333334</v>
       </c>
       <c r="H3">
         <v>12.47932</v>
       </c>
       <c r="I3">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="J3">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.130649</v>
+        <v>0.3389413333333333</v>
       </c>
       <c r="N3">
-        <v>0.391947</v>
+        <v>1.016824</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.5434702262266666</v>
+        <v>1.409919119964445</v>
       </c>
       <c r="R3">
-        <v>4.891232036040001</v>
+        <v>12.68927207968</v>
       </c>
       <c r="S3">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
       <c r="T3">
-        <v>0.2627465109236077</v>
+        <v>0.1214086415227279</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,34 +655,34 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3657366666666667</v>
+        <v>1.240212333333333</v>
       </c>
       <c r="H4">
-        <v>1.09721</v>
+        <v>3.720637</v>
       </c>
       <c r="I4">
-        <v>0.02310126667562748</v>
+        <v>0.03619728348733726</v>
       </c>
       <c r="J4">
-        <v>0.02310126667562749</v>
+        <v>0.03619728348733727</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.130649</v>
+        <v>0.3389413333333333</v>
       </c>
       <c r="N4">
-        <v>0.391947</v>
+        <v>1.016824</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.04778312976333333</v>
+        <v>0.4203592218764444</v>
       </c>
       <c r="R4">
-        <v>0.4300481678700001</v>
+        <v>3.783232996888</v>
       </c>
       <c r="S4">
-        <v>0.02310126667562748</v>
+        <v>0.03619728348733726</v>
       </c>
       <c r="T4">
-        <v>0.02310126667562749</v>
+        <v>0.03619728348733727</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,28 +723,28 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.691843666666665</v>
+        <v>26.96925</v>
       </c>
       <c r="H5">
-        <v>29.075531</v>
+        <v>80.90774999999999</v>
       </c>
       <c r="I5">
-        <v>0.6121723237725447</v>
+        <v>0.7871342361731639</v>
       </c>
       <c r="J5">
-        <v>0.6121723237725448</v>
+        <v>0.7871342361731638</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.130649</v>
+        <v>0.3389413333333333</v>
       </c>
       <c r="N5">
-        <v>0.391947</v>
+        <v>1.016824</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>1.266229683206333</v>
+        <v>9.140993554</v>
       </c>
       <c r="R5">
-        <v>11.396067148857</v>
+        <v>82.26894198599999</v>
       </c>
       <c r="S5">
-        <v>0.6121723237725447</v>
+        <v>0.7871342361731639</v>
       </c>
       <c r="T5">
-        <v>0.6121723237725448</v>
+        <v>0.7871342361731638</v>
       </c>
     </row>
   </sheetData>
